--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_64ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_64ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
@@ -3602,28 +3602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1569.249393490098</v>
+        <v>1813.826774603541</v>
       </c>
       <c r="AB2" t="n">
-        <v>2147.116250570357</v>
+        <v>2481.757813402304</v>
       </c>
       <c r="AC2" t="n">
-        <v>1942.198489112506</v>
+        <v>2244.902330860155</v>
       </c>
       <c r="AD2" t="n">
-        <v>1569249.393490098</v>
+        <v>1813826.774603541</v>
       </c>
       <c r="AE2" t="n">
-        <v>2147116.250570357</v>
+        <v>2481757.813402304</v>
       </c>
       <c r="AF2" t="n">
         <v>3.242741666691168e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.3984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1942198.489112506</v>
+        <v>2244902.330860155</v>
       </c>
     </row>
     <row r="3">
@@ -3708,28 +3708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>805.9703679797733</v>
+        <v>962.5525428865661</v>
       </c>
       <c r="AB3" t="n">
-        <v>1102.764214373081</v>
+        <v>1317.006853998576</v>
       </c>
       <c r="AC3" t="n">
-        <v>997.5179454926094</v>
+        <v>1191.31356828368</v>
       </c>
       <c r="AD3" t="n">
-        <v>805970.3679797733</v>
+        <v>962552.5428865661</v>
       </c>
       <c r="AE3" t="n">
-        <v>1102764.214373081</v>
+        <v>1317006.853998576</v>
       </c>
       <c r="AF3" t="n">
         <v>5.081685494921057e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.88541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>997517.9454926094</v>
+        <v>1191313.56828368</v>
       </c>
     </row>
     <row r="4">
@@ -3814,28 +3814,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>677.9912102392525</v>
+        <v>814.9290227976444</v>
       </c>
       <c r="AB4" t="n">
-        <v>927.6574847105393</v>
+        <v>1115.021841122849</v>
       </c>
       <c r="AC4" t="n">
-        <v>839.1231563452217</v>
+        <v>1008.605721549067</v>
       </c>
       <c r="AD4" t="n">
-        <v>677991.2102392525</v>
+        <v>814929.0227976444</v>
       </c>
       <c r="AE4" t="n">
-        <v>927657.4847105392</v>
+        <v>1115021.841122849</v>
       </c>
       <c r="AF4" t="n">
         <v>5.770927813341253e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.20052083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>839123.1563452217</v>
+        <v>1008605.721549067</v>
       </c>
     </row>
     <row r="5">
@@ -3920,28 +3920,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>614.5025754265358</v>
+        <v>741.7533519410645</v>
       </c>
       <c r="AB5" t="n">
-        <v>840.7895336388914</v>
+        <v>1014.899659974119</v>
       </c>
       <c r="AC5" t="n">
-        <v>760.5457606039168</v>
+        <v>918.0390608468076</v>
       </c>
       <c r="AD5" t="n">
-        <v>614502.5754265358</v>
+        <v>741753.3519410645</v>
       </c>
       <c r="AE5" t="n">
-        <v>840789.5336388914</v>
+        <v>1014899.659974119</v>
       </c>
       <c r="AF5" t="n">
         <v>6.14676858788378e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.53385416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>760545.7606039168</v>
+        <v>918039.0608468077</v>
       </c>
     </row>
     <row r="6">
@@ -4026,28 +4026,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>579.8249920132096</v>
+        <v>707.0416031089574</v>
       </c>
       <c r="AB6" t="n">
-        <v>793.342134145771</v>
+        <v>967.4055138477511</v>
       </c>
       <c r="AC6" t="n">
-        <v>717.6266743255762</v>
+        <v>875.0776893682871</v>
       </c>
       <c r="AD6" t="n">
-        <v>579824.9920132096</v>
+        <v>707041.6031089574</v>
       </c>
       <c r="AE6" t="n">
-        <v>793342.1341457709</v>
+        <v>967405.5138477511</v>
       </c>
       <c r="AF6" t="n">
         <v>6.371694465143675e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.63541666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>717626.6743255763</v>
+        <v>875077.6893682871</v>
       </c>
     </row>
     <row r="7">
@@ -4132,28 +4132,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>561.8560172212995</v>
+        <v>679.2509526577752</v>
       </c>
       <c r="AB7" t="n">
-        <v>768.75619010026</v>
+        <v>929.381119863475</v>
       </c>
       <c r="AC7" t="n">
-        <v>695.3871782731796</v>
+        <v>840.6822901782982</v>
       </c>
       <c r="AD7" t="n">
-        <v>561856.0172212995</v>
+        <v>679250.9526577753</v>
       </c>
       <c r="AE7" t="n">
-        <v>768756.1901002601</v>
+        <v>929381.119863475</v>
       </c>
       <c r="AF7" t="n">
         <v>6.52887739330386e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.03645833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>695387.1782731797</v>
+        <v>840682.2901782983</v>
       </c>
     </row>
     <row r="8">
@@ -4238,28 +4238,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>536.2970784956379</v>
+        <v>653.7593337398183</v>
       </c>
       <c r="AB8" t="n">
-        <v>733.7853225550142</v>
+        <v>894.5023622490708</v>
       </c>
       <c r="AC8" t="n">
-        <v>663.7538812445314</v>
+        <v>809.1323122379691</v>
       </c>
       <c r="AD8" t="n">
-        <v>536297.078495638</v>
+        <v>653759.3337398183</v>
       </c>
       <c r="AE8" t="n">
-        <v>733785.3225550142</v>
+        <v>894502.3622490708</v>
       </c>
       <c r="AF8" t="n">
         <v>6.658818494957755e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.56770833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>663753.8812445314</v>
+        <v>809132.3122379691</v>
       </c>
     </row>
     <row r="9">
@@ -4344,28 +4344,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>531.0480241609678</v>
+        <v>648.510279405148</v>
       </c>
       <c r="AB9" t="n">
-        <v>726.6033348423847</v>
+        <v>887.3203745364411</v>
       </c>
       <c r="AC9" t="n">
-        <v>657.257332359212</v>
+        <v>802.6357633526497</v>
       </c>
       <c r="AD9" t="n">
-        <v>531048.0241609678</v>
+        <v>648510.279405148</v>
       </c>
       <c r="AE9" t="n">
-        <v>726603.3348423847</v>
+        <v>887320.3745364412</v>
       </c>
       <c r="AF9" t="n">
         <v>6.678586900033116e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>23.50260416666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>657257.332359212</v>
+        <v>802635.7633526498</v>
       </c>
     </row>
     <row r="10">
@@ -4450,28 +4450,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>513.974346833881</v>
+        <v>621.6149264187892</v>
       </c>
       <c r="AB10" t="n">
-        <v>703.2423762859817</v>
+        <v>850.520966041273</v>
       </c>
       <c r="AC10" t="n">
-        <v>636.1259109001209</v>
+        <v>769.3484387559663</v>
       </c>
       <c r="AD10" t="n">
-        <v>513974.346833881</v>
+        <v>621614.9264187892</v>
       </c>
       <c r="AE10" t="n">
-        <v>703242.3762859816</v>
+        <v>850520.966041273</v>
       </c>
       <c r="AF10" t="n">
         <v>6.808286923576335e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>23.05338541666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>636125.9109001209</v>
+        <v>769348.4387559663</v>
       </c>
     </row>
     <row r="11">
@@ -4556,28 +4556,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>495.5064664457485</v>
+        <v>612.9345562711479</v>
       </c>
       <c r="AB11" t="n">
-        <v>677.9738075935577</v>
+        <v>838.6441006543665</v>
       </c>
       <c r="AC11" t="n">
-        <v>613.2689389390431</v>
+        <v>758.6050847323008</v>
       </c>
       <c r="AD11" t="n">
-        <v>495506.4664457485</v>
+        <v>612934.5562711479</v>
       </c>
       <c r="AE11" t="n">
-        <v>677973.8075935578</v>
+        <v>838644.1006543665</v>
       </c>
       <c r="AF11" t="n">
         <v>6.848546968059082e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.91666666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>613268.9389390431</v>
+        <v>758605.0847323008</v>
       </c>
     </row>
     <row r="12">
@@ -4662,28 +4662,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>493.828275943817</v>
+        <v>611.2563657692165</v>
       </c>
       <c r="AB12" t="n">
-        <v>675.6776333122756</v>
+        <v>836.3479263730843</v>
       </c>
       <c r="AC12" t="n">
-        <v>611.1919083084656</v>
+        <v>756.5280541017233</v>
       </c>
       <c r="AD12" t="n">
-        <v>493828.275943817</v>
+        <v>611256.3657692164</v>
       </c>
       <c r="AE12" t="n">
-        <v>675677.6333122756</v>
+        <v>836347.9263730843</v>
       </c>
       <c r="AF12" t="n">
         <v>6.865904592027691e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>22.85807291666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>611191.9083084656</v>
+        <v>756528.0541017234</v>
       </c>
     </row>
     <row r="13">
@@ -4768,28 +4768,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>495.0411648060693</v>
+        <v>612.4692546314687</v>
       </c>
       <c r="AB13" t="n">
-        <v>677.3371613624895</v>
+        <v>838.0074544232981</v>
       </c>
       <c r="AC13" t="n">
-        <v>612.6930533307293</v>
+        <v>758.029199123987</v>
       </c>
       <c r="AD13" t="n">
-        <v>495041.1648060693</v>
+        <v>612469.2546314688</v>
       </c>
       <c r="AE13" t="n">
-        <v>677337.1613624895</v>
+        <v>838007.4544232981</v>
       </c>
       <c r="AF13" t="n">
         <v>6.86542243580634e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>23</v>
+        <v>22.86458333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>612693.0533307292</v>
+        <v>758029.199123987</v>
       </c>
     </row>
   </sheetData>
@@ -5065,28 +5065,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1139.233964426612</v>
+        <v>1342.491331160102</v>
       </c>
       <c r="AB2" t="n">
-        <v>1558.750169583868</v>
+        <v>1836.855865830784</v>
       </c>
       <c r="AC2" t="n">
-        <v>1409.985241118386</v>
+        <v>1661.548920039292</v>
       </c>
       <c r="AD2" t="n">
-        <v>1139233.964426612</v>
+        <v>1342491.331160102</v>
       </c>
       <c r="AE2" t="n">
-        <v>1558750.169583868</v>
+        <v>1836855.865830784</v>
       </c>
       <c r="AF2" t="n">
         <v>4.212891633377492e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.76822916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1409985.241118386</v>
+        <v>1661548.920039292</v>
       </c>
     </row>
     <row r="3">
@@ -5171,28 +5171,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>678.2556330093954</v>
+        <v>823.4297048422363</v>
       </c>
       <c r="AB3" t="n">
-        <v>928.0192796101579</v>
+        <v>1126.652849319884</v>
       </c>
       <c r="AC3" t="n">
-        <v>839.4504220474031</v>
+        <v>1019.126682647999</v>
       </c>
       <c r="AD3" t="n">
-        <v>678255.6330093954</v>
+        <v>823429.7048422364</v>
       </c>
       <c r="AE3" t="n">
-        <v>928019.2796101579</v>
+        <v>1126652.849319884</v>
       </c>
       <c r="AF3" t="n">
         <v>6.011897390038598e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.56770833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>839450.4220474031</v>
+        <v>1019126.682647999</v>
       </c>
     </row>
     <row r="4">
@@ -5277,28 +5277,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>580.2364995742978</v>
+        <v>715.6958568382496</v>
       </c>
       <c r="AB4" t="n">
-        <v>793.9051769452839</v>
+        <v>979.2466455988973</v>
       </c>
       <c r="AC4" t="n">
-        <v>718.1359811105393</v>
+        <v>885.7887201242368</v>
       </c>
       <c r="AD4" t="n">
-        <v>580236.4995742978</v>
+        <v>715695.8568382496</v>
       </c>
       <c r="AE4" t="n">
-        <v>793905.1769452839</v>
+        <v>979246.6455988974</v>
       </c>
       <c r="AF4" t="n">
         <v>6.667400220728165e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.75520833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>718135.9811105393</v>
+        <v>885788.7201242368</v>
       </c>
     </row>
     <row r="5">
@@ -5383,28 +5383,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>537.3513275666376</v>
+        <v>663.062815872777</v>
       </c>
       <c r="AB5" t="n">
-        <v>735.2277926441421</v>
+        <v>907.2317969440492</v>
       </c>
       <c r="AC5" t="n">
-        <v>665.0586840128724</v>
+        <v>820.6468675515325</v>
       </c>
       <c r="AD5" t="n">
-        <v>537351.3275666375</v>
+        <v>663062.815872777</v>
       </c>
       <c r="AE5" t="n">
-        <v>735227.7926441422</v>
+        <v>907231.7969440492</v>
       </c>
       <c r="AF5" t="n">
         <v>7.021398127684059e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.45963541666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>665058.6840128724</v>
+        <v>820646.8675515326</v>
       </c>
     </row>
     <row r="6">
@@ -5489,28 +5489,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>506.5767619759806</v>
+        <v>622.7433517772779</v>
       </c>
       <c r="AB6" t="n">
-        <v>693.1206743249916</v>
+        <v>852.0649273993707</v>
       </c>
       <c r="AC6" t="n">
-        <v>626.9702099683898</v>
+        <v>770.7450466090105</v>
       </c>
       <c r="AD6" t="n">
-        <v>506576.7619759806</v>
+        <v>622743.3517772779</v>
       </c>
       <c r="AE6" t="n">
-        <v>693120.6743249915</v>
+        <v>852064.9273993707</v>
       </c>
       <c r="AF6" t="n">
         <v>7.231370060572951e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.75</v>
       </c>
       <c r="AH6" t="n">
-        <v>626970.2099683898</v>
+        <v>770745.0466090105</v>
       </c>
     </row>
     <row r="7">
@@ -5595,28 +5595,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>488.944197204412</v>
+        <v>605.0093017792241</v>
       </c>
       <c r="AB7" t="n">
-        <v>668.9950213106747</v>
+        <v>827.8004178209648</v>
       </c>
       <c r="AC7" t="n">
-        <v>605.1470754171928</v>
+        <v>748.7963077693144</v>
       </c>
       <c r="AD7" t="n">
-        <v>488944.197204412</v>
+        <v>605009.3017792241</v>
       </c>
       <c r="AE7" t="n">
-        <v>668995.0213106747</v>
+        <v>827800.4178209647</v>
       </c>
       <c r="AF7" t="n">
         <v>7.39412468694537e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.22265625</v>
       </c>
       <c r="AH7" t="n">
-        <v>605147.0754171928</v>
+        <v>748796.3077693144</v>
       </c>
     </row>
     <row r="8">
@@ -5701,28 +5701,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>466.7738772695111</v>
+        <v>582.9063016520277</v>
       </c>
       <c r="AB8" t="n">
-        <v>638.6606114902577</v>
+        <v>797.558117931389</v>
       </c>
       <c r="AC8" t="n">
-        <v>577.7077390954247</v>
+        <v>721.4402905358653</v>
       </c>
       <c r="AD8" t="n">
-        <v>466773.8772695111</v>
+        <v>582906.3016520276</v>
       </c>
       <c r="AE8" t="n">
-        <v>638660.6114902577</v>
+        <v>797558.117931389</v>
       </c>
       <c r="AF8" t="n">
         <v>7.481173352590263e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.95572916666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>577707.7390954247</v>
+        <v>721440.2905358654</v>
       </c>
     </row>
     <row r="9">
@@ -5807,28 +5807,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>464.7624712461607</v>
+        <v>580.8948956286772</v>
       </c>
       <c r="AB9" t="n">
-        <v>635.9085170321385</v>
+        <v>794.8060234732699</v>
       </c>
       <c r="AC9" t="n">
-        <v>575.2183006697995</v>
+        <v>718.9508521102404</v>
       </c>
       <c r="AD9" t="n">
-        <v>464762.4712461607</v>
+        <v>580894.8956286772</v>
       </c>
       <c r="AE9" t="n">
-        <v>635908.5170321385</v>
+        <v>794806.0234732699</v>
       </c>
       <c r="AF9" t="n">
         <v>7.493571192848778e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.91666666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>575218.3006697996</v>
+        <v>718950.8521102404</v>
       </c>
     </row>
   </sheetData>
@@ -6104,28 +6104,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>546.6740676152068</v>
+        <v>686.9721282923238</v>
       </c>
       <c r="AB2" t="n">
-        <v>747.9835768688582</v>
+        <v>939.9455730008928</v>
       </c>
       <c r="AC2" t="n">
-        <v>676.5970740940373</v>
+        <v>850.2384867355839</v>
       </c>
       <c r="AD2" t="n">
-        <v>546674.0676152068</v>
+        <v>686972.1282923238</v>
       </c>
       <c r="AE2" t="n">
-        <v>747983.5768688582</v>
+        <v>939945.5730008928</v>
       </c>
       <c r="AF2" t="n">
         <v>8.396459967513236e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.54817708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>676597.0740940373</v>
+        <v>850238.486735584</v>
       </c>
     </row>
     <row r="3">
@@ -6210,28 +6210,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>411.6137674942057</v>
+        <v>533.1666992730889</v>
       </c>
       <c r="AB3" t="n">
-        <v>563.1881158033888</v>
+        <v>729.5021996001379</v>
       </c>
       <c r="AC3" t="n">
-        <v>509.4382324705976</v>
+        <v>659.8795335330677</v>
       </c>
       <c r="AD3" t="n">
-        <v>411613.7674942057</v>
+        <v>533166.6992730888</v>
       </c>
       <c r="AE3" t="n">
-        <v>563188.1158033888</v>
+        <v>729502.1996001379</v>
       </c>
       <c r="AF3" t="n">
         <v>9.990701215455895e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.99088541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>509438.2324705976</v>
+        <v>659879.5335330677</v>
       </c>
     </row>
     <row r="4">
@@ -6316,28 +6316,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>404.9098077550657</v>
+        <v>517.175588631784</v>
       </c>
       <c r="AB4" t="n">
-        <v>554.0154623304672</v>
+        <v>707.6224565426932</v>
       </c>
       <c r="AC4" t="n">
-        <v>501.1410041712318</v>
+        <v>640.0879624446133</v>
       </c>
       <c r="AD4" t="n">
-        <v>404909.8077550657</v>
+        <v>517175.588631784</v>
       </c>
       <c r="AE4" t="n">
-        <v>554015.4623304673</v>
+        <v>707622.4565426932</v>
       </c>
       <c r="AF4" t="n">
         <v>1.012177509173016e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.68489583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>501141.0041712318</v>
+        <v>640087.9624446132</v>
       </c>
     </row>
   </sheetData>
@@ -6613,28 +6613,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>715.1877109289512</v>
+        <v>866.8415131769091</v>
       </c>
       <c r="AB2" t="n">
-        <v>978.5513779479799</v>
+        <v>1186.050800677199</v>
       </c>
       <c r="AC2" t="n">
-        <v>885.1598078421089</v>
+        <v>1072.855776893321</v>
       </c>
       <c r="AD2" t="n">
-        <v>715187.7109289513</v>
+        <v>866841.5131769091</v>
       </c>
       <c r="AE2" t="n">
-        <v>978551.3779479798</v>
+        <v>1186050.800677199</v>
       </c>
       <c r="AF2" t="n">
         <v>6.461135165602809e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.12890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>885159.8078421089</v>
+        <v>1072855.77689332</v>
       </c>
     </row>
     <row r="3">
@@ -6719,28 +6719,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>503.7406643846191</v>
+        <v>626.9125908283595</v>
       </c>
       <c r="AB3" t="n">
-        <v>689.2402004806955</v>
+        <v>857.769464202906</v>
       </c>
       <c r="AC3" t="n">
-        <v>623.4600831015142</v>
+        <v>775.905150426384</v>
       </c>
       <c r="AD3" t="n">
-        <v>503740.6643846191</v>
+        <v>626912.5908283595</v>
       </c>
       <c r="AE3" t="n">
-        <v>689240.2004806956</v>
+        <v>857769.464202906</v>
       </c>
       <c r="AF3" t="n">
         <v>8.158044036079425e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.44270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>623460.0831015143</v>
+        <v>775905.1504263841</v>
       </c>
     </row>
     <row r="4">
@@ -6825,28 +6825,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>444.9767165593511</v>
+        <v>558.7675581010978</v>
       </c>
       <c r="AB4" t="n">
-        <v>608.8367745837542</v>
+        <v>764.5304240788</v>
       </c>
       <c r="AC4" t="n">
-        <v>550.7302473252598</v>
+        <v>691.564713429908</v>
       </c>
       <c r="AD4" t="n">
-        <v>444976.7165593511</v>
+        <v>558767.5581010978</v>
       </c>
       <c r="AE4" t="n">
-        <v>608836.7745837541</v>
+        <v>764530.4240788</v>
       </c>
       <c r="AF4" t="n">
         <v>8.742811204146715e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.74348958333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>550730.2473252598</v>
+        <v>691564.713429908</v>
       </c>
     </row>
     <row r="5">
@@ -6931,28 +6931,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>428.5296082370244</v>
+        <v>542.2189645522858</v>
       </c>
       <c r="AB5" t="n">
-        <v>586.3331153819375</v>
+        <v>741.8879083128942</v>
       </c>
       <c r="AC5" t="n">
-        <v>530.3743057735805</v>
+        <v>671.0831675897298</v>
       </c>
       <c r="AD5" t="n">
-        <v>428529.6082370244</v>
+        <v>542218.9645522858</v>
       </c>
       <c r="AE5" t="n">
-        <v>586333.1153819376</v>
+        <v>741887.9083128942</v>
       </c>
       <c r="AF5" t="n">
         <v>8.953569709104445e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.18359375</v>
       </c>
       <c r="AH5" t="n">
-        <v>530374.3057735806</v>
+        <v>671083.1675897298</v>
       </c>
     </row>
     <row r="6">
@@ -7037,28 +7037,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>429.6964769646357</v>
+        <v>543.3858332798972</v>
       </c>
       <c r="AB6" t="n">
-        <v>587.9296766536704</v>
+        <v>743.4844695846268</v>
       </c>
       <c r="AC6" t="n">
-        <v>531.8184934783269</v>
+        <v>672.5273552944761</v>
       </c>
       <c r="AD6" t="n">
-        <v>429696.4769646357</v>
+        <v>543385.8332798971</v>
       </c>
       <c r="AE6" t="n">
-        <v>587929.6766536704</v>
+        <v>743484.4695846268</v>
       </c>
       <c r="AF6" t="n">
         <v>8.952294317243884e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.19010416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>531818.4934783269</v>
+        <v>672527.3552944761</v>
       </c>
     </row>
   </sheetData>
@@ -7334,28 +7334,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>445.9785870637883</v>
+        <v>566.1774287413872</v>
       </c>
       <c r="AB2" t="n">
-        <v>610.2075780073322</v>
+        <v>774.6689359892652</v>
       </c>
       <c r="AC2" t="n">
-        <v>551.9702231940265</v>
+        <v>700.735619993129</v>
       </c>
       <c r="AD2" t="n">
-        <v>445978.5870637883</v>
+        <v>566177.4287413872</v>
       </c>
       <c r="AE2" t="n">
-        <v>610207.5780073323</v>
+        <v>774668.9359892651</v>
       </c>
       <c r="AF2" t="n">
         <v>1.047095371103879e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.21744791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>551970.2231940265</v>
+        <v>700735.619993129</v>
       </c>
     </row>
     <row r="3">
@@ -7440,28 +7440,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>395.0785756379331</v>
+        <v>506.0261741243548</v>
       </c>
       <c r="AB3" t="n">
-        <v>540.5639368244563</v>
+        <v>692.3673357361754</v>
       </c>
       <c r="AC3" t="n">
-        <v>488.9732733801797</v>
+        <v>626.288768957173</v>
       </c>
       <c r="AD3" t="n">
-        <v>395078.5756379331</v>
+        <v>506026.1741243548</v>
       </c>
       <c r="AE3" t="n">
-        <v>540563.9368244563</v>
+        <v>692367.3357361754</v>
       </c>
       <c r="AF3" t="n">
         <v>1.12882194497417e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.32291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>488973.2733801797</v>
+        <v>626288.768957173</v>
       </c>
     </row>
   </sheetData>
@@ -7737,28 +7737,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1233.440197345319</v>
+        <v>1446.900978074242</v>
       </c>
       <c r="AB2" t="n">
-        <v>1687.647293548917</v>
+        <v>1979.71375096724</v>
       </c>
       <c r="AC2" t="n">
-        <v>1526.580604480461</v>
+        <v>1790.772649120627</v>
       </c>
       <c r="AD2" t="n">
-        <v>1233440.197345319</v>
+        <v>1446900.978074242</v>
       </c>
       <c r="AE2" t="n">
-        <v>1687647.293548917</v>
+        <v>1979713.75096724</v>
       </c>
       <c r="AF2" t="n">
         <v>3.94611812616428e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.46744791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1526580.604480461</v>
+        <v>1790772.649120627</v>
       </c>
     </row>
     <row r="3">
@@ -7843,28 +7843,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>712.8401972572224</v>
+        <v>858.3726425131387</v>
       </c>
       <c r="AB3" t="n">
-        <v>975.3394061773265</v>
+        <v>1174.463318214824</v>
       </c>
       <c r="AC3" t="n">
-        <v>882.2543821492158</v>
+        <v>1062.37418749402</v>
       </c>
       <c r="AD3" t="n">
-        <v>712840.1972572224</v>
+        <v>858372.6425131387</v>
       </c>
       <c r="AE3" t="n">
-        <v>975339.4061773265</v>
+        <v>1174463.318214824</v>
       </c>
       <c r="AF3" t="n">
         <v>5.761641357986634e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.08854166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>882254.3821492158</v>
+        <v>1062374.18749402</v>
       </c>
     </row>
     <row r="4">
@@ -7949,28 +7949,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>608.2891554797912</v>
+        <v>734.4379087568346</v>
       </c>
       <c r="AB4" t="n">
-        <v>832.2880583510133</v>
+        <v>1004.89034787488</v>
       </c>
       <c r="AC4" t="n">
-        <v>752.8556541856184</v>
+        <v>908.9850234461624</v>
       </c>
       <c r="AD4" t="n">
-        <v>608289.1554797912</v>
+        <v>734437.9087568347</v>
       </c>
       <c r="AE4" t="n">
-        <v>832288.0583510133</v>
+        <v>1004890.34787488</v>
       </c>
       <c r="AF4" t="n">
         <v>6.428594525950864e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.06770833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>752855.6541856184</v>
+        <v>908985.0234461623</v>
       </c>
     </row>
     <row r="5">
@@ -8055,28 +8055,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>553.4925664510132</v>
+        <v>679.6744741169804</v>
       </c>
       <c r="AB5" t="n">
-        <v>757.312947786947</v>
+        <v>929.9606006084076</v>
       </c>
       <c r="AC5" t="n">
-        <v>685.0360629455578</v>
+        <v>841.2064660942409</v>
       </c>
       <c r="AD5" t="n">
-        <v>553492.5664510132</v>
+        <v>679674.4741169803</v>
       </c>
       <c r="AE5" t="n">
-        <v>757312.947786947</v>
+        <v>929960.6006084076</v>
       </c>
       <c r="AF5" t="n">
         <v>6.784079792241332e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.70052083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>685036.0629455578</v>
+        <v>841206.4660942409</v>
       </c>
     </row>
     <row r="6">
@@ -8161,28 +8161,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>522.4050786418477</v>
+        <v>648.552820889034</v>
       </c>
       <c r="AB6" t="n">
-        <v>714.7776754832789</v>
+        <v>887.3785816714917</v>
       </c>
       <c r="AC6" t="n">
-        <v>646.5602973319222</v>
+        <v>802.6884152804255</v>
       </c>
       <c r="AD6" t="n">
-        <v>522405.0786418476</v>
+        <v>648552.8208890341</v>
       </c>
       <c r="AE6" t="n">
-        <v>714777.6754832789</v>
+        <v>887378.5816714917</v>
       </c>
       <c r="AF6" t="n">
         <v>6.995672036188301e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.95833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>646560.2973319222</v>
+        <v>802688.4152804255</v>
       </c>
     </row>
     <row r="7">
@@ -8267,28 +8267,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>505.9819653625021</v>
+        <v>622.3876245219383</v>
       </c>
       <c r="AB7" t="n">
-        <v>692.3068473578559</v>
+        <v>851.578205675036</v>
       </c>
       <c r="AC7" t="n">
-        <v>626.2340535047842</v>
+        <v>770.3047769229279</v>
       </c>
       <c r="AD7" t="n">
-        <v>505981.9653625021</v>
+        <v>622387.6245219383</v>
       </c>
       <c r="AE7" t="n">
-        <v>692306.8473578559</v>
+        <v>851578.2056750359</v>
       </c>
       <c r="AF7" t="n">
         <v>7.146515168734437e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.45052083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>626234.0535047842</v>
+        <v>770304.7769229279</v>
       </c>
     </row>
     <row r="8">
@@ -8373,28 +8373,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>497.5178505413101</v>
+        <v>613.9235097007461</v>
       </c>
       <c r="AB8" t="n">
-        <v>680.7258720491088</v>
+        <v>839.9972303662889</v>
       </c>
       <c r="AC8" t="n">
-        <v>615.7583502255031</v>
+        <v>759.8290736436468</v>
       </c>
       <c r="AD8" t="n">
-        <v>497517.8505413101</v>
+        <v>613923.509700746</v>
       </c>
       <c r="AE8" t="n">
-        <v>680725.8720491088</v>
+        <v>839997.2303662889</v>
       </c>
       <c r="AF8" t="n">
         <v>7.18538430357141e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.3203125</v>
       </c>
       <c r="AH8" t="n">
-        <v>615758.3502255031</v>
+        <v>759829.0736436468</v>
       </c>
     </row>
     <row r="9">
@@ -8479,28 +8479,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>471.7650290156799</v>
+        <v>588.2380079828204</v>
       </c>
       <c r="AB9" t="n">
-        <v>645.4897255034405</v>
+        <v>804.8531937514621</v>
       </c>
       <c r="AC9" t="n">
-        <v>583.885092051911</v>
+        <v>728.0391345583738</v>
       </c>
       <c r="AD9" t="n">
-        <v>471765.02901568</v>
+        <v>588238.0079828204</v>
       </c>
       <c r="AE9" t="n">
-        <v>645489.7255034405</v>
+        <v>804853.193751462</v>
       </c>
       <c r="AF9" t="n">
         <v>7.322584627201259e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.88411458333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>583885.0920519109</v>
+        <v>728039.1345583738</v>
       </c>
     </row>
     <row r="10">
@@ -8585,28 +8585,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>472.4614267021778</v>
+        <v>588.9344056693182</v>
       </c>
       <c r="AB10" t="n">
-        <v>646.4425675410043</v>
+        <v>805.8060357890259</v>
       </c>
       <c r="AC10" t="n">
-        <v>584.7469961827319</v>
+        <v>728.9010386891949</v>
       </c>
       <c r="AD10" t="n">
-        <v>472461.4267021778</v>
+        <v>588934.4056693182</v>
       </c>
       <c r="AE10" t="n">
-        <v>646442.5675410044</v>
+        <v>805806.0357890259</v>
       </c>
       <c r="AF10" t="n">
         <v>7.326188388047071e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.87760416666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>584746.9961827319</v>
+        <v>728901.0386891949</v>
       </c>
     </row>
   </sheetData>
@@ -8882,28 +8882,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>396.9626037499404</v>
+        <v>516.3248572441257</v>
       </c>
       <c r="AB2" t="n">
-        <v>543.1417472047586</v>
+        <v>706.4584483264791</v>
       </c>
       <c r="AC2" t="n">
-        <v>491.3050611557657</v>
+        <v>639.0350455388588</v>
       </c>
       <c r="AD2" t="n">
-        <v>396962.6037499404</v>
+        <v>516324.8572441257</v>
       </c>
       <c r="AE2" t="n">
-        <v>543141.7472047587</v>
+        <v>706458.4483264792</v>
       </c>
       <c r="AF2" t="n">
         <v>1.19310332145508e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.17578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>491305.0611557657</v>
+        <v>639035.0455388587</v>
       </c>
     </row>
     <row r="3">
@@ -8988,28 +8988,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>395.896774170196</v>
+        <v>506.1378401388143</v>
       </c>
       <c r="AB3" t="n">
-        <v>541.6834321526699</v>
+        <v>692.520122103516</v>
       </c>
       <c r="AC3" t="n">
-        <v>489.9859256454903</v>
+        <v>626.4269736080514</v>
       </c>
       <c r="AD3" t="n">
-        <v>395896.774170196</v>
+        <v>506137.8401388144</v>
       </c>
       <c r="AE3" t="n">
-        <v>541683.4321526699</v>
+        <v>692520.122103516</v>
       </c>
       <c r="AF3" t="n">
         <v>1.200993667124292e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.01302083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>489985.9256454903</v>
+        <v>626426.9736080514</v>
       </c>
     </row>
   </sheetData>
@@ -9285,28 +9285,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>909.1588776444344</v>
+        <v>1081.683545941405</v>
       </c>
       <c r="AB2" t="n">
-        <v>1243.951285652028</v>
+        <v>1480.007148067133</v>
       </c>
       <c r="AC2" t="n">
-        <v>1125.230320845992</v>
+        <v>1338.757343058684</v>
       </c>
       <c r="AD2" t="n">
-        <v>909158.8776444343</v>
+        <v>1081683.545941405</v>
       </c>
       <c r="AE2" t="n">
-        <v>1243951.285652028</v>
+        <v>1480007.148067133</v>
       </c>
       <c r="AF2" t="n">
         <v>5.163202736991309e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.16536458333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1125230.320845992</v>
+        <v>1338757.343058683</v>
       </c>
     </row>
     <row r="3">
@@ -9391,28 +9391,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>585.1827119282661</v>
+        <v>719.3867594797879</v>
       </c>
       <c r="AB3" t="n">
-        <v>800.6728028994717</v>
+        <v>984.2967014241824</v>
       </c>
       <c r="AC3" t="n">
-        <v>724.2577143420822</v>
+        <v>890.3568057093546</v>
       </c>
       <c r="AD3" t="n">
-        <v>585182.7119282661</v>
+        <v>719386.7594797879</v>
       </c>
       <c r="AE3" t="n">
-        <v>800672.8028994717</v>
+        <v>984296.7014241824</v>
       </c>
       <c r="AF3" t="n">
         <v>6.920028289131287e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.98567708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>724257.7143420822</v>
+        <v>890356.8057093546</v>
       </c>
     </row>
     <row r="4">
@@ -9497,28 +9497,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>512.9532237348242</v>
+        <v>637.568827502753</v>
       </c>
       <c r="AB4" t="n">
-        <v>701.8452306130803</v>
+        <v>872.3497973407939</v>
       </c>
       <c r="AC4" t="n">
-        <v>634.862106849335</v>
+        <v>789.0939570332179</v>
       </c>
       <c r="AD4" t="n">
-        <v>512953.2237348242</v>
+        <v>637568.827502753</v>
       </c>
       <c r="AE4" t="n">
-        <v>701845.2306130803</v>
+        <v>872349.7973407939</v>
       </c>
       <c r="AF4" t="n">
         <v>7.555640603178993e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.71354166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>634862.106849335</v>
+        <v>789093.9570332179</v>
       </c>
     </row>
     <row r="5">
@@ -9603,28 +9603,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>476.4560067501009</v>
+        <v>591.5173321532174</v>
       </c>
       <c r="AB5" t="n">
-        <v>651.9081281910069</v>
+        <v>809.340109754971</v>
       </c>
       <c r="AC5" t="n">
-        <v>589.6909313952607</v>
+        <v>732.0978255959342</v>
       </c>
       <c r="AD5" t="n">
-        <v>476456.0067501009</v>
+        <v>591517.3321532174</v>
       </c>
       <c r="AE5" t="n">
-        <v>651908.1281910068</v>
+        <v>809340.109754971</v>
       </c>
       <c r="AF5" t="n">
         <v>7.878609676111174e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.70442708333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>589690.9313952607</v>
+        <v>732097.8255959342</v>
       </c>
     </row>
     <row r="6">
@@ -9709,28 +9709,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>455.0243297988642</v>
+        <v>560.464057029464</v>
       </c>
       <c r="AB6" t="n">
-        <v>622.5843622874677</v>
+        <v>766.8516487568412</v>
       </c>
       <c r="AC6" t="n">
-        <v>563.1657845533914</v>
+        <v>693.6644036825363</v>
       </c>
       <c r="AD6" t="n">
-        <v>455024.3297988642</v>
+        <v>560464.057029464</v>
       </c>
       <c r="AE6" t="n">
-        <v>622584.3622874677</v>
+        <v>766851.6487568412</v>
       </c>
       <c r="AF6" t="n">
         <v>8.102049203477223e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.046875</v>
       </c>
       <c r="AH6" t="n">
-        <v>563165.7845533914</v>
+        <v>693664.4036825363</v>
       </c>
     </row>
     <row r="7">
@@ -9815,28 +9815,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>441.4964625091803</v>
+        <v>556.5236224935161</v>
       </c>
       <c r="AB7" t="n">
-        <v>604.0749374543379</v>
+        <v>761.4601723850544</v>
       </c>
       <c r="AC7" t="n">
-        <v>546.4228732481947</v>
+        <v>688.7874822486882</v>
       </c>
       <c r="AD7" t="n">
-        <v>441496.4625091803</v>
+        <v>556523.6224935161</v>
       </c>
       <c r="AE7" t="n">
-        <v>604074.937454338</v>
+        <v>761460.1723850544</v>
       </c>
       <c r="AF7" t="n">
         <v>8.146220817359601e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.92317708333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>546422.8732481947</v>
+        <v>688787.4822486882</v>
       </c>
     </row>
   </sheetData>
@@ -10112,28 +10112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1060.997819635284</v>
+        <v>1253.918143077397</v>
       </c>
       <c r="AB2" t="n">
-        <v>1451.704024745261</v>
+        <v>1715.666122322751</v>
       </c>
       <c r="AC2" t="n">
-        <v>1313.155430102968</v>
+        <v>1551.925355560794</v>
       </c>
       <c r="AD2" t="n">
-        <v>1060997.819635284</v>
+        <v>1253918.143077397</v>
       </c>
       <c r="AE2" t="n">
-        <v>1451704.024745261</v>
+        <v>1715666.122322751</v>
       </c>
       <c r="AF2" t="n">
         <v>4.500798800563916e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.16015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1313155.430102968</v>
+        <v>1551925.355560794</v>
       </c>
     </row>
     <row r="3">
@@ -10218,28 +10218,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>652.6235689848987</v>
+        <v>787.6715152452136</v>
       </c>
       <c r="AB3" t="n">
-        <v>892.9483588049852</v>
+        <v>1077.72691677325</v>
       </c>
       <c r="AC3" t="n">
-        <v>807.7266207015296</v>
+        <v>974.8701724356378</v>
       </c>
       <c r="AD3" t="n">
-        <v>652623.5689848987</v>
+        <v>787671.5152452136</v>
       </c>
       <c r="AE3" t="n">
-        <v>892948.3588049852</v>
+        <v>1077726.91677325</v>
       </c>
       <c r="AF3" t="n">
         <v>6.294999573623171e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.00130208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>807726.6207015296</v>
+        <v>974870.1724356378</v>
       </c>
     </row>
     <row r="4">
@@ -10324,28 +10324,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>560.9662725325527</v>
+        <v>686.3289629406568</v>
       </c>
       <c r="AB4" t="n">
-        <v>767.5388021643514</v>
+        <v>939.0655657922891</v>
       </c>
       <c r="AC4" t="n">
-        <v>694.2859761332597</v>
+        <v>849.4424661798719</v>
       </c>
       <c r="AD4" t="n">
-        <v>560966.2725325527</v>
+        <v>686328.9629406568</v>
       </c>
       <c r="AE4" t="n">
-        <v>767538.8021643515</v>
+        <v>939065.5657922891</v>
       </c>
       <c r="AF4" t="n">
         <v>6.940175436336345e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.39713541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>694285.9761332597</v>
+        <v>849442.4661798718</v>
       </c>
     </row>
     <row r="5">
@@ -10430,28 +10430,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>520.2421726545117</v>
+        <v>635.9879380479667</v>
       </c>
       <c r="AB5" t="n">
-        <v>711.8182920907283</v>
+        <v>870.1867546448347</v>
       </c>
       <c r="AC5" t="n">
-        <v>643.8833533368359</v>
+        <v>787.1373520963117</v>
       </c>
       <c r="AD5" t="n">
-        <v>520242.1726545118</v>
+        <v>635987.9380479667</v>
       </c>
       <c r="AE5" t="n">
-        <v>711818.2920907283</v>
+        <v>870186.7546448347</v>
       </c>
       <c r="AF5" t="n">
         <v>7.286182466360448e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.19270833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>643883.3533368359</v>
+        <v>787137.3520963117</v>
       </c>
     </row>
     <row r="6">
@@ -10536,28 +10536,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>490.028508381724</v>
+        <v>605.8415935828834</v>
       </c>
       <c r="AB6" t="n">
-        <v>670.4786236999061</v>
+        <v>828.939196184854</v>
       </c>
       <c r="AC6" t="n">
-        <v>606.4890848766448</v>
+        <v>749.8264027244397</v>
       </c>
       <c r="AD6" t="n">
-        <v>490028.508381724</v>
+        <v>605841.5935828835</v>
       </c>
       <c r="AE6" t="n">
-        <v>670478.623699906</v>
+        <v>828939.196184854</v>
       </c>
       <c r="AF6" t="n">
         <v>7.491133422329342e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.52864583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>606489.0848766448</v>
+        <v>749826.4027244397</v>
       </c>
     </row>
     <row r="7">
@@ -10642,28 +10642,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>460.3448377901203</v>
+        <v>576.1237575724989</v>
       </c>
       <c r="AB7" t="n">
-        <v>629.8641160453509</v>
+        <v>788.2779418970512</v>
       </c>
       <c r="AC7" t="n">
-        <v>569.7507688298209</v>
+        <v>713.0458014774358</v>
       </c>
       <c r="AD7" t="n">
-        <v>460344.8377901203</v>
+        <v>576123.7575724989</v>
       </c>
       <c r="AE7" t="n">
-        <v>629864.1160453509</v>
+        <v>788277.9418970512</v>
       </c>
       <c r="AF7" t="n">
         <v>7.68877437062167e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.92317708333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>569750.7688298209</v>
+        <v>713045.8014774359</v>
       </c>
     </row>
     <row r="8">
@@ -10748,28 +10748,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>457.5426145112525</v>
+        <v>573.3215342936311</v>
       </c>
       <c r="AB8" t="n">
-        <v>626.0299905298381</v>
+        <v>784.443816381538</v>
       </c>
       <c r="AC8" t="n">
-        <v>566.2825668722795</v>
+        <v>709.5775995198945</v>
       </c>
       <c r="AD8" t="n">
-        <v>457542.6145112525</v>
+        <v>573321.5342936311</v>
       </c>
       <c r="AE8" t="n">
-        <v>626029.990529838</v>
+        <v>784443.8163815381</v>
       </c>
       <c r="AF8" t="n">
         <v>7.674695837318656e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.96875</v>
       </c>
       <c r="AH8" t="n">
-        <v>566282.5668722795</v>
+        <v>709577.5995198946</v>
       </c>
     </row>
     <row r="9">
@@ -10854,28 +10854,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>457.5989621278789</v>
+        <v>573.3778819102574</v>
       </c>
       <c r="AB9" t="n">
-        <v>626.1070878247875</v>
+        <v>784.5209136764877</v>
       </c>
       <c r="AC9" t="n">
-        <v>566.3523061096058</v>
+        <v>709.6473387572208</v>
       </c>
       <c r="AD9" t="n">
-        <v>457598.9621278789</v>
+        <v>573377.8819102574</v>
       </c>
       <c r="AE9" t="n">
-        <v>626107.0878247875</v>
+        <v>784520.9136764876</v>
       </c>
       <c r="AF9" t="n">
         <v>7.693106227022596e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.91015625</v>
       </c>
       <c r="AH9" t="n">
-        <v>566352.3061096058</v>
+        <v>709647.3387572209</v>
       </c>
     </row>
   </sheetData>
@@ -11151,28 +11151,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1447.682291386634</v>
+        <v>1681.854680183877</v>
       </c>
       <c r="AB2" t="n">
-        <v>1980.782778310366</v>
+        <v>2301.187771619424</v>
       </c>
       <c r="AC2" t="n">
-        <v>1791.739649994513</v>
+        <v>2081.565640433388</v>
       </c>
       <c r="AD2" t="n">
-        <v>1447682.291386634</v>
+        <v>1681854.680183877</v>
       </c>
       <c r="AE2" t="n">
-        <v>1980782.778310366</v>
+        <v>2301187.771619424</v>
       </c>
       <c r="AF2" t="n">
         <v>3.461895684317898e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>47</v>
+        <v>46.28255208333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1791739.649994513</v>
+        <v>2081565.640433388</v>
       </c>
     </row>
     <row r="3">
@@ -11257,28 +11257,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>778.8732714277462</v>
+        <v>925.2484762716097</v>
       </c>
       <c r="AB3" t="n">
-        <v>1065.688771431068</v>
+        <v>1265.965784316724</v>
       </c>
       <c r="AC3" t="n">
-        <v>963.9809307892708</v>
+        <v>1145.143786655672</v>
       </c>
       <c r="AD3" t="n">
-        <v>778873.2714277462</v>
+        <v>925248.4762716097</v>
       </c>
       <c r="AE3" t="n">
-        <v>1065688.771431068</v>
+        <v>1265965.784316724</v>
       </c>
       <c r="AF3" t="n">
         <v>5.284399419734792e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.31901041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>963980.9307892708</v>
+        <v>1145143.786655672</v>
       </c>
     </row>
     <row r="4">
@@ -11363,28 +11363,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>646.6001300015384</v>
+        <v>783.2456542575543</v>
       </c>
       <c r="AB4" t="n">
-        <v>884.7068238525782</v>
+        <v>1071.671258514728</v>
       </c>
       <c r="AC4" t="n">
-        <v>800.2716462779133</v>
+        <v>969.3924577021396</v>
       </c>
       <c r="AD4" t="n">
-        <v>646600.1300015384</v>
+        <v>783245.6542575543</v>
       </c>
       <c r="AE4" t="n">
-        <v>884706.8238525782</v>
+        <v>1071671.258514728</v>
       </c>
       <c r="AF4" t="n">
         <v>5.985835698727115e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.77083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>800271.6462779134</v>
+        <v>969392.4577021396</v>
       </c>
     </row>
     <row r="5">
@@ -11469,28 +11469,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>598.0160917284614</v>
+        <v>724.8314612000016</v>
       </c>
       <c r="AB5" t="n">
-        <v>818.2319993108576</v>
+        <v>991.746382521066</v>
       </c>
       <c r="AC5" t="n">
-        <v>740.1410856924523</v>
+        <v>897.0954996980447</v>
       </c>
       <c r="AD5" t="n">
-        <v>598016.0917284614</v>
+        <v>724831.4612000016</v>
       </c>
       <c r="AE5" t="n">
-        <v>818231.9993108576</v>
+        <v>991746.382521066</v>
       </c>
       <c r="AF5" t="n">
         <v>6.340491726105338e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.2734375</v>
       </c>
       <c r="AH5" t="n">
-        <v>740141.0856924523</v>
+        <v>897095.4996980447</v>
       </c>
     </row>
     <row r="6">
@@ -11575,28 +11575,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>563.6019328338917</v>
+        <v>680.6886327474416</v>
       </c>
       <c r="AB6" t="n">
-        <v>771.1450288657695</v>
+        <v>931.3482171881257</v>
       </c>
       <c r="AC6" t="n">
-        <v>697.5480296196653</v>
+        <v>842.4616504951229</v>
       </c>
       <c r="AD6" t="n">
-        <v>563601.9328338917</v>
+        <v>680688.6327474416</v>
       </c>
       <c r="AE6" t="n">
-        <v>771145.0288657695</v>
+        <v>931348.2171881257</v>
       </c>
       <c r="AF6" t="n">
         <v>6.570119813228089e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.38802083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>697548.0296196652</v>
+        <v>842461.6504951229</v>
       </c>
     </row>
     <row r="7">
@@ -11681,28 +11681,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>536.8226438670629</v>
+        <v>663.6711677275267</v>
       </c>
       <c r="AB7" t="n">
-        <v>734.5044242825054</v>
+        <v>908.0641707903075</v>
       </c>
       <c r="AC7" t="n">
-        <v>664.4043529124165</v>
+        <v>821.3998008061479</v>
       </c>
       <c r="AD7" t="n">
-        <v>536822.6438670629</v>
+        <v>663671.1677275267</v>
       </c>
       <c r="AE7" t="n">
-        <v>734504.4242825054</v>
+        <v>908064.1707903075</v>
       </c>
       <c r="AF7" t="n">
         <v>6.716560018842275e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.85416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>664404.3529124164</v>
+        <v>821399.800806148</v>
       </c>
     </row>
     <row r="8">
@@ -11787,28 +11787,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>521.3882470591682</v>
+        <v>638.4407815539371</v>
       </c>
       <c r="AB8" t="n">
-        <v>713.3864016524134</v>
+        <v>873.5428433415219</v>
       </c>
       <c r="AC8" t="n">
-        <v>645.3018047228095</v>
+        <v>790.1731403980872</v>
       </c>
       <c r="AD8" t="n">
-        <v>521388.2470591682</v>
+        <v>638440.7815539371</v>
       </c>
       <c r="AE8" t="n">
-        <v>713386.4016524134</v>
+        <v>873542.8433415219</v>
       </c>
       <c r="AF8" t="n">
         <v>6.851924914788162e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.38541666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>645301.8047228095</v>
+        <v>790173.1403980872</v>
       </c>
     </row>
     <row r="9">
@@ -11893,28 +11893,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>510.5467288045796</v>
+        <v>627.5992632993486</v>
       </c>
       <c r="AB9" t="n">
-        <v>698.5525580824562</v>
+        <v>858.7089997715648</v>
       </c>
       <c r="AC9" t="n">
-        <v>631.8836823637388</v>
+        <v>776.7550180390165</v>
       </c>
       <c r="AD9" t="n">
-        <v>510546.7288045796</v>
+        <v>627599.2632993486</v>
       </c>
       <c r="AE9" t="n">
-        <v>698552.5580824562</v>
+        <v>858708.9997715647</v>
       </c>
       <c r="AF9" t="n">
         <v>6.921822424694765e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>24</v>
+        <v>23.15104166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>631883.6823637388</v>
+        <v>776755.0180390165</v>
       </c>
     </row>
     <row r="10">
@@ -11999,28 +11999,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>490.837773739264</v>
+        <v>607.9576280417375</v>
       </c>
       <c r="AB10" t="n">
-        <v>671.58589626436</v>
+        <v>831.8344478843101</v>
       </c>
       <c r="AC10" t="n">
-        <v>607.4906809016143</v>
+        <v>752.4453356652109</v>
       </c>
       <c r="AD10" t="n">
-        <v>490837.773739264</v>
+        <v>607957.6280417375</v>
       </c>
       <c r="AE10" t="n">
-        <v>671585.8962643601</v>
+        <v>831834.44788431</v>
       </c>
       <c r="AF10" t="n">
         <v>6.981875214896214e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.94921875</v>
       </c>
       <c r="AH10" t="n">
-        <v>607490.6809016143</v>
+        <v>752445.3356652108</v>
       </c>
     </row>
     <row r="11">
@@ -12105,28 +12105,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>486.1757548096238</v>
+        <v>603.2956091120973</v>
       </c>
       <c r="AB11" t="n">
-        <v>665.207116291067</v>
+        <v>825.4556679110169</v>
       </c>
       <c r="AC11" t="n">
-        <v>601.7206827362983</v>
+        <v>746.675337499895</v>
       </c>
       <c r="AD11" t="n">
-        <v>486175.7548096238</v>
+        <v>603295.6091120973</v>
       </c>
       <c r="AE11" t="n">
-        <v>665207.116291067</v>
+        <v>825455.667911017</v>
       </c>
       <c r="AF11" t="n">
         <v>7.008702076092762e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.86458333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>601720.6827362983</v>
+        <v>746675.337499895</v>
       </c>
     </row>
     <row r="12">
@@ -12211,28 +12211,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>487.457957235981</v>
+        <v>604.5778115384545</v>
       </c>
       <c r="AB12" t="n">
-        <v>666.9614822175877</v>
+        <v>827.2100338375376</v>
       </c>
       <c r="AC12" t="n">
-        <v>603.3076144410597</v>
+        <v>748.2622692046566</v>
       </c>
       <c r="AD12" t="n">
-        <v>487457.957235981</v>
+        <v>604577.8115384545</v>
       </c>
       <c r="AE12" t="n">
-        <v>666961.4822175876</v>
+        <v>827210.0338375376</v>
       </c>
       <c r="AF12" t="n">
         <v>7.007471486129618e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>22.86458333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>603307.6144410598</v>
+        <v>748262.2692046566</v>
       </c>
     </row>
   </sheetData>
@@ -12508,28 +12508,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>773.3491921249761</v>
+        <v>935.0833207149939</v>
       </c>
       <c r="AB2" t="n">
-        <v>1058.130482423839</v>
+        <v>1279.422252366877</v>
       </c>
       <c r="AC2" t="n">
-        <v>957.1439942767663</v>
+        <v>1157.315988281391</v>
       </c>
       <c r="AD2" t="n">
-        <v>773349.1921249761</v>
+        <v>935083.3207149939</v>
       </c>
       <c r="AE2" t="n">
-        <v>1058130.482423839</v>
+        <v>1279422.252366877</v>
       </c>
       <c r="AF2" t="n">
         <v>5.97659493230366e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.42447916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>957143.9942767663</v>
+        <v>1157315.988281391</v>
       </c>
     </row>
     <row r="3">
@@ -12614,28 +12614,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>528.3733156060493</v>
+        <v>661.5813726173726</v>
       </c>
       <c r="AB3" t="n">
-        <v>722.9436805977318</v>
+        <v>905.2048209253412</v>
       </c>
       <c r="AC3" t="n">
-        <v>653.9469503793118</v>
+        <v>818.8133432791712</v>
       </c>
       <c r="AD3" t="n">
-        <v>528373.3156060494</v>
+        <v>661581.3726173727</v>
       </c>
       <c r="AE3" t="n">
-        <v>722943.6805977318</v>
+        <v>905204.8209253412</v>
       </c>
       <c r="AF3" t="n">
         <v>7.687130213765383e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.98307291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>653946.9503793118</v>
+        <v>818813.3432791713</v>
       </c>
     </row>
     <row r="4">
@@ -12720,28 +12720,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>473.3703541526379</v>
+        <v>587.5399382154062</v>
       </c>
       <c r="AB4" t="n">
-        <v>647.686202177773</v>
+        <v>803.8980638990214</v>
       </c>
       <c r="AC4" t="n">
-        <v>585.8719400752195</v>
+        <v>727.1751609585169</v>
       </c>
       <c r="AD4" t="n">
-        <v>473370.3541526379</v>
+        <v>587539.9382154063</v>
       </c>
       <c r="AE4" t="n">
-        <v>647686.202177773</v>
+        <v>803898.0638990214</v>
       </c>
       <c r="AF4" t="n">
         <v>8.317650393748136e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.01692708333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>585871.9400752195</v>
+        <v>727175.1609585169</v>
       </c>
     </row>
     <row r="5">
@@ -12826,28 +12826,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>439.5963989392348</v>
+        <v>553.7318175832224</v>
       </c>
       <c r="AB5" t="n">
-        <v>601.4751866530499</v>
+        <v>757.6403017410505</v>
       </c>
       <c r="AC5" t="n">
-        <v>544.0712390146083</v>
+        <v>685.3321746977258</v>
       </c>
       <c r="AD5" t="n">
-        <v>439596.3989392348</v>
+        <v>553731.8175832224</v>
       </c>
       <c r="AE5" t="n">
-        <v>601475.1866530499</v>
+        <v>757640.3017410506</v>
       </c>
       <c r="AF5" t="n">
         <v>8.605143050022509e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.21614583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>544071.2390146083</v>
+        <v>685332.1746977258</v>
       </c>
     </row>
     <row r="6">
@@ -12932,28 +12932,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>437.2959239318345</v>
+        <v>551.431342575822</v>
       </c>
       <c r="AB6" t="n">
-        <v>598.3275752581302</v>
+        <v>754.4926903461309</v>
       </c>
       <c r="AC6" t="n">
-        <v>541.2240312335196</v>
+        <v>682.4849669166371</v>
       </c>
       <c r="AD6" t="n">
-        <v>437295.9239318345</v>
+        <v>551431.342575822</v>
       </c>
       <c r="AE6" t="n">
-        <v>598327.5752581302</v>
+        <v>754492.6903461309</v>
       </c>
       <c r="AF6" t="n">
         <v>8.644109503967916e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.11197916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>541224.0312335195</v>
+        <v>682484.966916637</v>
       </c>
     </row>
   </sheetData>
@@ -13229,28 +13229,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>597.7537712180881</v>
+        <v>748.1003742788754</v>
       </c>
       <c r="AB2" t="n">
-        <v>817.8730808158008</v>
+        <v>1023.583935947576</v>
       </c>
       <c r="AC2" t="n">
-        <v>739.8164218748184</v>
+        <v>925.8945217098152</v>
       </c>
       <c r="AD2" t="n">
-        <v>597753.7712180881</v>
+        <v>748100.3742788754</v>
       </c>
       <c r="AE2" t="n">
-        <v>817873.0808158008</v>
+        <v>1023583.935947576</v>
       </c>
       <c r="AF2" t="n">
         <v>7.645320675019622e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.70703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>739816.4218748184</v>
+        <v>925894.5217098152</v>
       </c>
     </row>
     <row r="3">
@@ -13335,28 +13335,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>446.0230446044243</v>
+        <v>568.0995277515668</v>
       </c>
       <c r="AB3" t="n">
-        <v>610.2684067757589</v>
+        <v>777.2988366520165</v>
       </c>
       <c r="AC3" t="n">
-        <v>552.0252465501679</v>
+        <v>703.1145266277164</v>
       </c>
       <c r="AD3" t="n">
-        <v>446023.0446044243</v>
+        <v>568099.5277515668</v>
       </c>
       <c r="AE3" t="n">
-        <v>610268.4067757588</v>
+        <v>777298.8366520165</v>
       </c>
       <c r="AF3" t="n">
         <v>9.285049030070831e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.45963541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>552025.2465501679</v>
+        <v>703114.5266277164</v>
       </c>
     </row>
     <row r="4">
@@ -13441,28 +13441,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>412.9664721280001</v>
+        <v>525.6761873252767</v>
       </c>
       <c r="AB4" t="n">
-        <v>565.0389459604628</v>
+        <v>719.2533506950765</v>
       </c>
       <c r="AC4" t="n">
-        <v>511.112421995137</v>
+        <v>650.6088203831555</v>
       </c>
       <c r="AD4" t="n">
-        <v>412966.4721280001</v>
+        <v>525676.1873252767</v>
       </c>
       <c r="AE4" t="n">
-        <v>565038.9459604628</v>
+        <v>719253.3506950765</v>
       </c>
       <c r="AF4" t="n">
         <v>9.67369953805531e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.4765625</v>
       </c>
       <c r="AH4" t="n">
-        <v>511112.4219951369</v>
+        <v>650608.8203831555</v>
       </c>
     </row>
     <row r="5">
@@ -13547,28 +13547,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>414.3028349551482</v>
+        <v>527.0125501524248</v>
       </c>
       <c r="AB5" t="n">
-        <v>566.867416536734</v>
+        <v>721.0818212713476</v>
       </c>
       <c r="AC5" t="n">
-        <v>512.7663859058832</v>
+        <v>652.2627842939019</v>
       </c>
       <c r="AD5" t="n">
-        <v>414302.8349551482</v>
+        <v>527012.5501524247</v>
       </c>
       <c r="AE5" t="n">
-        <v>566867.416536734</v>
+        <v>721081.8212713476</v>
       </c>
       <c r="AF5" t="n">
         <v>9.673350659681895e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.48307291666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>512766.3859058833</v>
+        <v>652262.7842939019</v>
       </c>
     </row>
   </sheetData>
@@ -24537,28 +24537,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>496.4961119524139</v>
+        <v>626.6781705730608</v>
       </c>
       <c r="AB2" t="n">
-        <v>679.3278842358559</v>
+        <v>857.4487200677147</v>
       </c>
       <c r="AC2" t="n">
-        <v>614.4937844070587</v>
+        <v>775.6150176612881</v>
       </c>
       <c r="AD2" t="n">
-        <v>496496.1119524139</v>
+        <v>626678.1705730609</v>
       </c>
       <c r="AE2" t="n">
-        <v>679327.8842358559</v>
+        <v>857448.7200677147</v>
       </c>
       <c r="AF2" t="n">
         <v>9.308511003545008e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.40234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>614493.7844070587</v>
+        <v>775615.0176612881</v>
       </c>
     </row>
     <row r="3">
@@ -24643,28 +24643,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>395.1975971198748</v>
+        <v>516.1068427117932</v>
       </c>
       <c r="AB3" t="n">
-        <v>540.7267872669058</v>
+        <v>706.1601512252194</v>
       </c>
       <c r="AC3" t="n">
-        <v>489.1205816049641</v>
+        <v>638.7652174942808</v>
       </c>
       <c r="AD3" t="n">
-        <v>395197.5971198748</v>
+        <v>516106.8427117932</v>
       </c>
       <c r="AE3" t="n">
-        <v>540726.7872669059</v>
+        <v>706160.1512252194</v>
       </c>
       <c r="AF3" t="n">
         <v>1.065201147627654e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.9453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>489120.581604964</v>
+        <v>638765.2174942808</v>
       </c>
     </row>
     <row r="4">
@@ -24749,28 +24749,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>396.6325432733568</v>
+        <v>517.5417888652752</v>
       </c>
       <c r="AB4" t="n">
-        <v>542.6901438994564</v>
+        <v>708.1235078577697</v>
       </c>
       <c r="AC4" t="n">
-        <v>490.8965582360922</v>
+        <v>640.541194125409</v>
       </c>
       <c r="AD4" t="n">
-        <v>396632.5432733568</v>
+        <v>517541.7888652752</v>
       </c>
       <c r="AE4" t="n">
-        <v>542690.1438994564</v>
+        <v>708123.5078577697</v>
       </c>
       <c r="AF4" t="n">
         <v>1.06508360602899e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.95182291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>490896.5582360922</v>
+        <v>640541.194125409</v>
       </c>
     </row>
   </sheetData>
@@ -25046,28 +25046,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>392.6657638838315</v>
+        <v>511.1287449545833</v>
       </c>
       <c r="AB2" t="n">
-        <v>537.2626213367523</v>
+        <v>699.3488982556318</v>
       </c>
       <c r="AC2" t="n">
-        <v>485.9870308091968</v>
+        <v>632.604020948457</v>
       </c>
       <c r="AD2" t="n">
-        <v>392665.7638838314</v>
+        <v>511128.7449545834</v>
       </c>
       <c r="AE2" t="n">
-        <v>537262.6213367523</v>
+        <v>699348.8982556318</v>
       </c>
       <c r="AF2" t="n">
         <v>1.292387229799277e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.10677083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>485987.0308091968</v>
+        <v>632604.0209484569</v>
       </c>
     </row>
   </sheetData>
@@ -25343,28 +25343,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>977.2311536245073</v>
+        <v>1160.019422276634</v>
       </c>
       <c r="AB2" t="n">
-        <v>1337.090776784829</v>
+        <v>1587.189750003949</v>
       </c>
       <c r="AC2" t="n">
-        <v>1209.480709667176</v>
+        <v>1435.710587898377</v>
       </c>
       <c r="AD2" t="n">
-        <v>977231.1536245074</v>
+        <v>1160019.422276634</v>
       </c>
       <c r="AE2" t="n">
-        <v>1337090.776784829</v>
+        <v>1587189.750003949</v>
       </c>
       <c r="AF2" t="n">
         <v>4.819061081931796e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.61067708333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1209480.709667176</v>
+        <v>1435710.587898377</v>
       </c>
     </row>
     <row r="3">
@@ -25449,28 +25449,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>619.4351417597362</v>
+        <v>754.1212344507769</v>
       </c>
       <c r="AB3" t="n">
-        <v>847.5384885054448</v>
+        <v>1031.821942456376</v>
       </c>
       <c r="AC3" t="n">
-        <v>766.650604690224</v>
+        <v>933.3463044395301</v>
       </c>
       <c r="AD3" t="n">
-        <v>619435.1417597362</v>
+        <v>754121.2344507769</v>
       </c>
       <c r="AE3" t="n">
-        <v>847538.4885054447</v>
+        <v>1031821.942456376</v>
       </c>
       <c r="AF3" t="n">
         <v>6.586504834989677e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.51953125</v>
       </c>
       <c r="AH3" t="n">
-        <v>766650.6046902239</v>
+        <v>933346.30443953</v>
       </c>
     </row>
     <row r="4">
@@ -25555,28 +25555,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>541.7878051885382</v>
+        <v>657.1998731062207</v>
       </c>
       <c r="AB4" t="n">
-        <v>741.2979770500057</v>
+        <v>899.2098599960672</v>
       </c>
       <c r="AC4" t="n">
-        <v>670.5495385385976</v>
+        <v>813.3905330070066</v>
       </c>
       <c r="AD4" t="n">
-        <v>541787.8051885382</v>
+        <v>657199.8731062207</v>
       </c>
       <c r="AE4" t="n">
-        <v>741297.9770500057</v>
+        <v>899209.8599960671</v>
       </c>
       <c r="AF4" t="n">
         <v>7.235690349579531e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.04557291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>670549.5385385976</v>
+        <v>813390.5330070066</v>
       </c>
     </row>
     <row r="5">
@@ -25661,28 +25661,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>493.8963873057363</v>
+        <v>618.8937139669982</v>
       </c>
       <c r="AB5" t="n">
-        <v>675.7708262825146</v>
+        <v>846.7976831133119</v>
       </c>
       <c r="AC5" t="n">
-        <v>611.2762070724223</v>
+        <v>765.9805007249895</v>
       </c>
       <c r="AD5" t="n">
-        <v>493896.3873057363</v>
+        <v>618893.7139669983</v>
       </c>
       <c r="AE5" t="n">
-        <v>675770.8262825146</v>
+        <v>846797.6831133119</v>
       </c>
       <c r="AF5" t="n">
         <v>7.563345302697994e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.96484375</v>
       </c>
       <c r="AH5" t="n">
-        <v>611276.2070724223</v>
+        <v>765980.5007249895</v>
       </c>
     </row>
     <row r="6">
@@ -25767,28 +25767,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>473.1131506201681</v>
+        <v>588.4568877002891</v>
       </c>
       <c r="AB6" t="n">
-        <v>647.3342849576286</v>
+        <v>805.1526746371943</v>
       </c>
       <c r="AC6" t="n">
-        <v>585.553609340647</v>
+        <v>728.310033408696</v>
       </c>
       <c r="AD6" t="n">
-        <v>473113.1506201681</v>
+        <v>588456.8877002891</v>
       </c>
       <c r="AE6" t="n">
-        <v>647334.2849576286</v>
+        <v>805152.6746371943</v>
       </c>
       <c r="AF6" t="n">
         <v>7.77714224746858e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.30078125</v>
       </c>
       <c r="AH6" t="n">
-        <v>585553.609340647</v>
+        <v>728310.0334086959</v>
       </c>
     </row>
     <row r="7">
@@ -25873,28 +25873,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>445.1948376985028</v>
+        <v>560.6058945863283</v>
       </c>
       <c r="AB7" t="n">
-        <v>609.135217549167</v>
+        <v>767.0457171595742</v>
       </c>
       <c r="AC7" t="n">
-        <v>551.000207312921</v>
+        <v>693.8399504692892</v>
       </c>
       <c r="AD7" t="n">
-        <v>445194.8376985028</v>
+        <v>560605.8945863283</v>
       </c>
       <c r="AE7" t="n">
-        <v>609135.217549167</v>
+        <v>767045.7171595743</v>
       </c>
       <c r="AF7" t="n">
         <v>7.97785526462951e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.71484375</v>
       </c>
       <c r="AH7" t="n">
-        <v>551000.2073129211</v>
+        <v>693839.9504692892</v>
       </c>
     </row>
     <row r="8">
@@ -25979,28 +25979,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>446.084593022286</v>
+        <v>561.4956499101115</v>
       </c>
       <c r="AB8" t="n">
-        <v>610.3526200364017</v>
+        <v>768.2631196468089</v>
       </c>
       <c r="AC8" t="n">
-        <v>552.1014226154091</v>
+        <v>694.9411657717773</v>
       </c>
       <c r="AD8" t="n">
-        <v>446084.593022286</v>
+        <v>561495.6499101116</v>
       </c>
       <c r="AE8" t="n">
-        <v>610352.6200364018</v>
+        <v>768263.1196468089</v>
       </c>
       <c r="AF8" t="n">
         <v>7.964492955581349e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.75390625</v>
       </c>
       <c r="AH8" t="n">
-        <v>552101.4226154091</v>
+        <v>694941.1657717773</v>
       </c>
     </row>
   </sheetData>
@@ -26276,28 +26276,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1337.713072963017</v>
+        <v>1561.512984555829</v>
       </c>
       <c r="AB2" t="n">
-        <v>1830.318042163658</v>
+        <v>2136.530954560217</v>
       </c>
       <c r="AC2" t="n">
-        <v>1655.635057087064</v>
+        <v>1932.623438897017</v>
       </c>
       <c r="AD2" t="n">
-        <v>1337713.072963017</v>
+        <v>1561512.984555829</v>
       </c>
       <c r="AE2" t="n">
-        <v>1830318.042163657</v>
+        <v>2136530.954560217</v>
       </c>
       <c r="AF2" t="n">
         <v>3.692422236100636e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>45</v>
+        <v>44.34895833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1655635.057087064</v>
+        <v>1932623.438897017</v>
       </c>
     </row>
     <row r="3">
@@ -26382,28 +26382,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>740.6173755845774</v>
+        <v>896.3303054343746</v>
       </c>
       <c r="AB3" t="n">
-        <v>1013.345367007434</v>
+        <v>1226.398667197561</v>
       </c>
       <c r="AC3" t="n">
-        <v>916.6331074193988</v>
+        <v>1109.352899661565</v>
       </c>
       <c r="AD3" t="n">
-        <v>740617.3755845774</v>
+        <v>896330.3054343746</v>
       </c>
       <c r="AE3" t="n">
-        <v>1013345.367007434</v>
+        <v>1226398.667197561</v>
       </c>
       <c r="AF3" t="n">
         <v>5.514107761943052e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.70052083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>916633.1074193988</v>
+        <v>1109352.899661565</v>
       </c>
     </row>
     <row r="4">
@@ -26488,28 +26488,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>628.1112523698889</v>
+        <v>764.2842048260618</v>
       </c>
       <c r="AB4" t="n">
-        <v>859.4095258052416</v>
+        <v>1045.72736688245</v>
       </c>
       <c r="AC4" t="n">
-        <v>777.3886868512337</v>
+        <v>945.9246146747654</v>
       </c>
       <c r="AD4" t="n">
-        <v>628111.2523698889</v>
+        <v>764284.2048260618</v>
       </c>
       <c r="AE4" t="n">
-        <v>859409.5258052417</v>
+        <v>1045727.36688245</v>
       </c>
       <c r="AF4" t="n">
         <v>6.191517195952112e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.45182291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>777388.6868512337</v>
+        <v>945924.6146747654</v>
       </c>
     </row>
     <row r="5">
@@ -26594,28 +26594,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>581.3413364880756</v>
+        <v>698.1441276146711</v>
       </c>
       <c r="AB5" t="n">
-        <v>795.4168635526795</v>
+        <v>955.231595347553</v>
       </c>
       <c r="AC5" t="n">
-        <v>719.5033944697906</v>
+        <v>864.0656325635463</v>
       </c>
       <c r="AD5" t="n">
-        <v>581341.3364880757</v>
+        <v>698144.1276146711</v>
       </c>
       <c r="AE5" t="n">
-        <v>795416.8635526795</v>
+        <v>955231.595347553</v>
       </c>
       <c r="AF5" t="n">
         <v>6.547452713636042e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.01302083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>719503.3944697906</v>
+        <v>864065.6325635463</v>
       </c>
     </row>
     <row r="6">
@@ -26700,28 +26700,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>548.8729046749801</v>
+        <v>665.6415303827948</v>
       </c>
       <c r="AB6" t="n">
-        <v>750.9921227398846</v>
+        <v>910.7601079015103</v>
       </c>
       <c r="AC6" t="n">
-        <v>679.3184885696535</v>
+        <v>823.8384414632293</v>
       </c>
       <c r="AD6" t="n">
-        <v>548872.9046749801</v>
+        <v>665641.5303827948</v>
       </c>
       <c r="AE6" t="n">
-        <v>750992.1227398847</v>
+        <v>910760.1079015103</v>
       </c>
       <c r="AF6" t="n">
         <v>6.76327792506559e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.21223958333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>679318.4885696535</v>
+        <v>823838.4414632292</v>
       </c>
     </row>
     <row r="7">
@@ -26806,28 +26806,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>520.7865873921108</v>
+        <v>637.6225329076299</v>
       </c>
       <c r="AB7" t="n">
-        <v>712.5631843525945</v>
+        <v>872.4232794450617</v>
       </c>
       <c r="AC7" t="n">
-        <v>644.5571541266925</v>
+        <v>789.1604261085873</v>
       </c>
       <c r="AD7" t="n">
-        <v>520786.5873921108</v>
+        <v>637622.5329076299</v>
       </c>
       <c r="AE7" t="n">
-        <v>712563.1843525944</v>
+        <v>872423.2794450617</v>
       </c>
       <c r="AF7" t="n">
         <v>6.935585931859579e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23.61328125</v>
       </c>
       <c r="AH7" t="n">
-        <v>644557.1541266924</v>
+        <v>789160.4261085873</v>
       </c>
     </row>
     <row r="8">
@@ -26912,28 +26912,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>502.1421631760118</v>
+        <v>609.2086255096474</v>
       </c>
       <c r="AB8" t="n">
-        <v>687.0530606061828</v>
+        <v>833.5461178100174</v>
       </c>
       <c r="AC8" t="n">
-        <v>621.4816807869549</v>
+        <v>753.9936462155526</v>
       </c>
       <c r="AD8" t="n">
-        <v>502142.1631760118</v>
+        <v>609208.6255096474</v>
       </c>
       <c r="AE8" t="n">
-        <v>687053.0606061828</v>
+        <v>833546.1178100174</v>
       </c>
       <c r="AF8" t="n">
         <v>7.097832157234938e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>24</v>
+        <v>23.07291666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>621481.6807869549</v>
+        <v>753993.6462155527</v>
       </c>
     </row>
     <row r="9">
@@ -27018,28 +27018,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>484.4347633939262</v>
+        <v>601.2365434906645</v>
       </c>
       <c r="AB9" t="n">
-        <v>662.8250150289889</v>
+        <v>822.6383634882085</v>
       </c>
       <c r="AC9" t="n">
-        <v>599.5659258753728</v>
+        <v>744.1269126570877</v>
       </c>
       <c r="AD9" t="n">
-        <v>484434.7633939262</v>
+        <v>601236.5434906646</v>
       </c>
       <c r="AE9" t="n">
-        <v>662825.0150289889</v>
+        <v>822638.3634882085</v>
       </c>
       <c r="AF9" t="n">
         <v>7.129023679632682e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22.96875</v>
       </c>
       <c r="AH9" t="n">
-        <v>599565.9258753728</v>
+        <v>744126.9126570877</v>
       </c>
     </row>
     <row r="10">
@@ -27124,28 +27124,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>479.5740341045263</v>
+        <v>596.3758142012647</v>
       </c>
       <c r="AB10" t="n">
-        <v>656.1743507749904</v>
+        <v>815.9876992342097</v>
       </c>
       <c r="AC10" t="n">
-        <v>593.5499916835099</v>
+        <v>738.1109784652249</v>
       </c>
       <c r="AD10" t="n">
-        <v>479574.0341045263</v>
+        <v>596375.8142012646</v>
       </c>
       <c r="AE10" t="n">
-        <v>656174.3507749904</v>
+        <v>815987.6992342097</v>
       </c>
       <c r="AF10" t="n">
         <v>7.154429677714715e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>22.890625</v>
       </c>
       <c r="AH10" t="n">
-        <v>593549.9916835099</v>
+        <v>738110.9784652248</v>
       </c>
     </row>
     <row r="11">
@@ -27230,28 +27230,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>479.0959933156989</v>
+        <v>595.8977734124372</v>
       </c>
       <c r="AB11" t="n">
-        <v>655.5202742780453</v>
+        <v>815.3336227372648</v>
       </c>
       <c r="AC11" t="n">
-        <v>592.9583393294313</v>
+        <v>737.5193261111463</v>
       </c>
       <c r="AD11" t="n">
-        <v>479095.9933156989</v>
+        <v>595897.7734124372</v>
       </c>
       <c r="AE11" t="n">
-        <v>655520.2742780454</v>
+        <v>815333.6227372648</v>
       </c>
       <c r="AF11" t="n">
         <v>7.168264627165327e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22.84505208333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>592958.3393294313</v>
+        <v>737519.3261111462</v>
       </c>
     </row>
   </sheetData>
@@ -27527,28 +27527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>399.3287249936703</v>
+        <v>534.7395999409468</v>
       </c>
       <c r="AB2" t="n">
-        <v>546.3791786763321</v>
+        <v>731.6543116853812</v>
       </c>
       <c r="AC2" t="n">
-        <v>494.2335167114558</v>
+        <v>661.8262510614037</v>
       </c>
       <c r="AD2" t="n">
-        <v>399328.7249936704</v>
+        <v>534739.5999409468</v>
       </c>
       <c r="AE2" t="n">
-        <v>546379.1786763321</v>
+        <v>731654.3116853812</v>
       </c>
       <c r="AF2" t="n">
         <v>1.391610756568886e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.54817708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>494233.5167114558</v>
+        <v>661826.2510614037</v>
       </c>
     </row>
   </sheetData>
@@ -27824,28 +27824,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>650.3344551923566</v>
+        <v>801.3900155418082</v>
       </c>
       <c r="AB2" t="n">
-        <v>889.8162923254557</v>
+        <v>1096.497174096569</v>
       </c>
       <c r="AC2" t="n">
-        <v>804.8934742509236</v>
+        <v>991.8490227442416</v>
       </c>
       <c r="AD2" t="n">
-        <v>650334.4551923566</v>
+        <v>801390.0155418082</v>
       </c>
       <c r="AE2" t="n">
-        <v>889816.2923254557</v>
+        <v>1096497.174096569</v>
       </c>
       <c r="AF2" t="n">
         <v>7.012788828680436e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.88541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>804893.4742509236</v>
+        <v>991849.0227442415</v>
       </c>
     </row>
     <row r="3">
@@ -27930,28 +27930,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>470.7870864688923</v>
+        <v>593.5133232368003</v>
       </c>
       <c r="AB3" t="n">
-        <v>644.1516613671453</v>
+        <v>812.0711128124412</v>
       </c>
       <c r="AC3" t="n">
-        <v>582.674730878799</v>
+        <v>734.5681855545861</v>
       </c>
       <c r="AD3" t="n">
-        <v>470787.0864688922</v>
+        <v>593513.3232368003</v>
       </c>
       <c r="AE3" t="n">
-        <v>644151.6613671453</v>
+        <v>812071.1128124412</v>
       </c>
       <c r="AF3" t="n">
         <v>8.67391386409964e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.96744791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>582674.730878799</v>
+        <v>734568.1855545861</v>
       </c>
     </row>
     <row r="4">
@@ -28036,28 +28036,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>424.2622386253763</v>
+        <v>537.4780477250654</v>
       </c>
       <c r="AB4" t="n">
-        <v>580.4943120162201</v>
+        <v>735.401176755402</v>
       </c>
       <c r="AC4" t="n">
-        <v>525.0927496062752</v>
+        <v>665.2155205878997</v>
       </c>
       <c r="AD4" t="n">
-        <v>424262.2386253763</v>
+        <v>537478.0477250654</v>
       </c>
       <c r="AE4" t="n">
-        <v>580494.3120162201</v>
+        <v>735401.176755402</v>
       </c>
       <c r="AF4" t="n">
         <v>9.246141995668042e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.42447916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>525092.7496062752</v>
+        <v>665215.5205878997</v>
       </c>
     </row>
     <row r="5">
@@ -28142,28 +28142,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>421.289506446409</v>
+        <v>534.505315546098</v>
       </c>
       <c r="AB5" t="n">
-        <v>576.4268887012693</v>
+        <v>731.3337534404511</v>
       </c>
       <c r="AC5" t="n">
-        <v>521.4135154638388</v>
+        <v>661.5362864454634</v>
       </c>
       <c r="AD5" t="n">
-        <v>421289.5064464089</v>
+        <v>534505.315546098</v>
       </c>
       <c r="AE5" t="n">
-        <v>576426.8887012693</v>
+        <v>731333.7534404511</v>
       </c>
       <c r="AF5" t="n">
         <v>9.297376374889863e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.29427083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>521413.5154638388</v>
+        <v>661536.2864454633</v>
       </c>
     </row>
   </sheetData>
@@ -28439,28 +28439,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>834.6750459897042</v>
+        <v>1006.629943655123</v>
       </c>
       <c r="AB2" t="n">
-        <v>1142.039221187287</v>
+        <v>1377.315498287797</v>
       </c>
       <c r="AC2" t="n">
-        <v>1033.044600779286</v>
+        <v>1245.866440205652</v>
       </c>
       <c r="AD2" t="n">
-        <v>834675.0459897042</v>
+        <v>1006629.943655123</v>
       </c>
       <c r="AE2" t="n">
-        <v>1142039.221187287</v>
+        <v>1377315.498287797</v>
       </c>
       <c r="AF2" t="n">
         <v>5.54769630290254e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1033044.600779286</v>
+        <v>1245866.440205652</v>
       </c>
     </row>
     <row r="3">
@@ -28545,28 +28545,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>561.3290977488714</v>
+        <v>694.9627183913161</v>
       </c>
       <c r="AB3" t="n">
-        <v>768.0352356320375</v>
+        <v>950.8786508942895</v>
       </c>
       <c r="AC3" t="n">
-        <v>694.7350306875385</v>
+        <v>860.1281270195062</v>
       </c>
       <c r="AD3" t="n">
-        <v>561329.0977488714</v>
+        <v>694962.7183913161</v>
       </c>
       <c r="AE3" t="n">
-        <v>768035.2356320375</v>
+        <v>950878.6508942895</v>
       </c>
       <c r="AF3" t="n">
         <v>7.285146979280146e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.47135416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>694735.0306875384</v>
+        <v>860128.1270195062</v>
       </c>
     </row>
     <row r="4">
@@ -28651,28 +28651,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>494.1041648707302</v>
+        <v>608.6962204524921</v>
       </c>
       <c r="AB4" t="n">
-        <v>676.0551167134387</v>
+        <v>832.845022605102</v>
       </c>
       <c r="AC4" t="n">
-        <v>611.5333652236229</v>
+        <v>753.359462553001</v>
       </c>
       <c r="AD4" t="n">
-        <v>494104.1648707302</v>
+        <v>608696.2204524921</v>
       </c>
       <c r="AE4" t="n">
-        <v>676055.1167134386</v>
+        <v>832845.022605102</v>
       </c>
       <c r="AF4" t="n">
         <v>7.907844561845486e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.38802083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>611533.3652236229</v>
+        <v>753359.462553001</v>
       </c>
     </row>
     <row r="5">
@@ -28757,28 +28757,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>458.0286185040885</v>
+        <v>572.5865086670694</v>
       </c>
       <c r="AB5" t="n">
-        <v>626.694962633819</v>
+        <v>783.4381218922346</v>
       </c>
       <c r="AC5" t="n">
-        <v>566.884074971951</v>
+        <v>708.6678871011489</v>
       </c>
       <c r="AD5" t="n">
-        <v>458028.6185040885</v>
+        <v>572586.5086670695</v>
       </c>
       <c r="AE5" t="n">
-        <v>626694.9626338191</v>
+        <v>783438.1218922345</v>
       </c>
       <c r="AF5" t="n">
         <v>8.223933201520662e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.45052083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>566884.074971951</v>
+        <v>708667.887101149</v>
       </c>
     </row>
     <row r="6">
@@ -28863,28 +28863,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>433.8081102516192</v>
+        <v>548.4333202223046</v>
       </c>
       <c r="AB6" t="n">
-        <v>593.5553947093797</v>
+        <v>750.3906638986367</v>
       </c>
       <c r="AC6" t="n">
-        <v>536.9073008985442</v>
+        <v>678.7744321160615</v>
       </c>
       <c r="AD6" t="n">
-        <v>433808.1102516191</v>
+        <v>548433.3202223046</v>
       </c>
       <c r="AE6" t="n">
-        <v>593555.3947093796</v>
+        <v>750390.6638986367</v>
       </c>
       <c r="AF6" t="n">
         <v>8.388642933160211e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.98828125</v>
       </c>
       <c r="AH6" t="n">
-        <v>536907.3008985443</v>
+        <v>678774.4321160614</v>
       </c>
     </row>
     <row r="7">
@@ -28969,28 +28969,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>435.0103636817948</v>
+        <v>549.6355736524803</v>
       </c>
       <c r="AB7" t="n">
-        <v>595.2003708922241</v>
+        <v>752.0356400814811</v>
       </c>
       <c r="AC7" t="n">
-        <v>538.3952828632365</v>
+        <v>680.2624140807538</v>
       </c>
       <c r="AD7" t="n">
-        <v>435010.3636817948</v>
+        <v>549635.5736524803</v>
       </c>
       <c r="AE7" t="n">
-        <v>595200.3708922241</v>
+        <v>752035.6400814811</v>
       </c>
       <c r="AF7" t="n">
         <v>8.387457971062084e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.99479166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>538395.2828632365</v>
+        <v>680262.4140807538</v>
       </c>
     </row>
   </sheetData>
